--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AIN127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8925429-8AF2-416E-8FCE-2980B2731A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E08F09B-B8CA-4723-9860-AEB676F038A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3B6C2A97-87E0-49C8-B807-890F5E2A9BCC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Employee Name</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>AIN125</t>
+  </si>
+  <si>
+    <t>Out</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
